--- a/xlsx/布吉納法索_intext.xlsx
+++ b/xlsx/布吉納法索_intext.xlsx
@@ -29,7 +29,7 @@
     <t>布基纳法索国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_布吉納法索</t>
+    <t>体育运动_体育运动_伊朗_布吉納法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2%E5%9B%BD%E5%BE%BD</t>
